--- a/DropShipping Record.xlsx
+++ b/DropShipping Record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>https://www.dhfate.com/</t>
   </si>
@@ -107,6 +107,57 @@
   </si>
   <si>
     <t>Paid for OwnerShip</t>
+  </si>
+  <si>
+    <t>https://www.similarweb.com</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>https://www.salehoo.com</t>
+  </si>
+  <si>
+    <t>https://www.worldwidebrands.com</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>https://www.namestation.com/</t>
+  </si>
+  <si>
+    <t>https://www.shopify.com/tools/business-name-generator</t>
+  </si>
+  <si>
+    <t>https://www.namemesh.com/</t>
+  </si>
+  <si>
+    <t>https://businessnamegenerator.com/</t>
+  </si>
+  <si>
+    <t>https://instantdomainsearch.com</t>
+  </si>
+  <si>
+    <t>https://www.namesilo.com</t>
+  </si>
+  <si>
+    <t>Domain,Cheep,easy and secure</t>
+  </si>
+  <si>
+    <t>https://pk.godaddy.com</t>
+  </si>
+  <si>
+    <t>Domain is available</t>
+  </si>
+  <si>
+    <t>https://www.siteground.com/go/ecommerceplan</t>
+  </si>
+  <si>
+    <t>https://www.scalahosting.com</t>
+  </si>
+  <si>
+    <t>Web Hosting</t>
   </si>
 </sst>
 </file>
@@ -151,8 +202,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,245 +528,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D27"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -737,6 +881,18 @@
     <hyperlink ref="C26" r:id="rId24"/>
     <hyperlink ref="C27" r:id="rId25"/>
     <hyperlink ref="D20" r:id="rId26"/>
+    <hyperlink ref="C29" r:id="rId27"/>
+    <hyperlink ref="C30" r:id="rId28"/>
+    <hyperlink ref="C31" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B37" r:id="rId34"/>
+    <hyperlink ref="B38" r:id="rId35"/>
+    <hyperlink ref="B39" r:id="rId36"/>
+    <hyperlink ref="B41" r:id="rId37"/>
+    <hyperlink ref="B42" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
